--- a/biology/Zoologie/Chaetodon_interruptus/Chaetodon_interruptus.xlsx
+++ b/biology/Zoologie/Chaetodon_interruptus/Chaetodon_interruptus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chaetodon interruptus
 Poisson-papillon à larme de l'océan Indien (Chaetodon interruptus) est une espèce de poissons de la famille des Chaetodontidae.
@@ -512,7 +524,9 @@
           <t>Sous-genre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le poisson-papillon à larme de l'océan Indien est un poisson-papillon qui fait partie du sous-genre Lepidochaetodon. En 1984, André Maugé et Roland Bauchot ont proposé d'affecter cette espèce à leur nouveau genre Heterochaetodon, ce qui donnerait comme nom scientifique pour ce poisson Heterochaetodon interruptus.
 Cette espèce a longtemps été confondue avec l'espèce voisine, le poisson-papillon à larme du Pacifique.
@@ -544,7 +558,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Taille : jusqu'à 20 cm.
 Sa coloration est jaune avec une bande verticale noire, étroite, passant par l'œil, et une tache noire au milieu du corps (vers le haut), tache qui peut faire penser à une goutte d'eau retournée ou à une larme.
@@ -576,7 +592,9 @@
           <t>Biologie et écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un poisson qu'on peut rencontrer à faible profondeur, mais aussi plus profondément.
 </t>
@@ -607,7 +625,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le poisson-papillon larme de l'océan Indien se rencontre dans l'océan Indien, comme son nom l'indique.
 </t>
